--- a/randomlist.xlsx
+++ b/randomlist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\web development\github\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\web development\github\tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AD9B38-D561-40A5-B472-8AE0E6E7040E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F588EC6A-E4B5-4549-BA9C-D5591BAC8298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -337,10 +337,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -360,6 +360,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
